--- a/门前三包.xlsx
+++ b/门前三包.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongzequan/Downloads/门前三包/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhao/Documents/散活文稿/qianmen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="1660" windowWidth="23320" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>页面</t>
     <rPh sb="0" eb="1">
@@ -586,12 +583,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泽权-做</t>
-    <rPh sb="0" eb="1">
-      <t>ze quan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zuo</t>
+    <t>赵光祖</t>
+    <rPh sb="0" eb="1">
+      <t>zhao guang zu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪泽权</t>
+    <rPh sb="0" eb="1">
+      <t>hong ze q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,7 +932,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -985,6 +989,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
       <c r="D4">
         <v>100</v>
       </c>
@@ -999,6 +1006,9 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
       <c r="D5">
         <v>80</v>
       </c>
@@ -1007,6 +1017,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
       <c r="D6">
         <v>150</v>
       </c>
@@ -1021,6 +1034,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" t="s">
         <v>30</v>
       </c>
@@ -1029,6 +1045,9 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1040,6 +1059,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
@@ -1048,6 +1070,9 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="D10">
         <v>150</v>
       </c>
@@ -1062,6 +1087,9 @@
       <c r="A11" t="s">
         <v>36</v>
       </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
       <c r="D11">
         <v>100</v>
       </c>
@@ -1095,6 +1123,9 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
       <c r="D15">
         <v>120</v>
       </c>
@@ -1106,6 +1137,9 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -1117,6 +1151,9 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1128,6 +1165,9 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
       <c r="D18">
         <v>110</v>
       </c>
@@ -1139,6 +1179,9 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
       <c r="D19">
         <v>80</v>
       </c>
@@ -1150,6 +1193,9 @@
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
       <c r="D20">
         <v>80</v>
       </c>
@@ -1164,6 +1210,9 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
       <c r="D21">
         <v>100</v>
       </c>
@@ -1175,6 +1224,9 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -1191,6 +1243,9 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1199,6 +1254,9 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
       <c r="D26">
         <v>100</v>
       </c>
@@ -1209,6 +1267,9 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
       </c>
       <c r="D27">
         <v>0</v>
